--- a/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,6 +517,11 @@
           <t>March 2022</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +555,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -578,6 +593,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +631,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -644,6 +669,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +707,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +745,11 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -743,6 +783,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -776,6 +821,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -809,6 +859,11 @@
           <t>June 2025</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -842,6 +897,11 @@
           <t>March 2023</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -875,6 +935,11 @@
           <t>March 2024</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -908,6 +973,11 @@
           <t>March 2025</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -941,6 +1011,11 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -974,6 +1049,11 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1007,6 +1087,11 @@
           <t>November 2024</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1040,6 +1125,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1073,6 +1163,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1106,6 +1201,11 @@
           <t>November 2022</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1139,6 +1239,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1172,6 +1277,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1205,6 +1315,11 @@
           <t>November 2023</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>additional-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1238,6 +1353,7 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1271,6 +1387,7 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1304,6 +1421,7 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1337,6 +1455,7 @@
           <t>June 2022</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,92 +479,81 @@
           <t>date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E2" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>March 2022</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
         <v>30</v>
       </c>
-      <c r="H3" t="n">
-        <v>19</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -585,214 +574,196 @@
       <c r="G4" t="n">
         <v>30</v>
       </c>
-      <c r="H4" t="n">
-        <v>19</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
-      </c>
-      <c r="H5" t="n">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F6" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>44</v>
-      </c>
-      <c r="H7" t="n">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>160</v>
       </c>
       <c r="C9" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F9" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -802,66 +773,60 @@
         <v>137</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" t="n">
-        <v>46</v>
-      </c>
-      <c r="H10" t="n">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
-      </c>
-      <c r="H11" t="n">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
@@ -875,31 +840,28 @@
         <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D12" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E12" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="n">
-        <v>49</v>
-      </c>
-      <c r="H12" t="n">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>March 2023</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
@@ -913,304 +875,280 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E13" t="n">
         <v>87</v>
       </c>
       <c r="F13" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="n">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>March 2024</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D14" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G14" t="n">
-        <v>44</v>
-      </c>
-      <c r="H14" t="n">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>March 2025</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F15" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>34</v>
-      </c>
-      <c r="H15" t="n">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E16" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
-      </c>
-      <c r="H16" t="n">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
-      </c>
-      <c r="H17" t="n">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
         <v>68</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>26</v>
       </c>
-      <c r="H18" t="n">
-        <v>17</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E19" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
-      </c>
-      <c r="H19" t="n">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>November 2022</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D20" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E20" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>November 2022</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1231,231 +1169,156 @@
       <c r="G21" t="n">
         <v>37</v>
       </c>
-      <c r="H21" t="n">
-        <v>26</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>160</v>
       </c>
       <c r="C22" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F22" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G22" t="n">
-        <v>37</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D23" t="n">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E23" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>31</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>additional-mathematics</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D24" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E24" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
-      </c>
-      <c r="H24" t="n">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>June 2022</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>160</v>
       </c>
       <c r="C25" t="n">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
-        <v>25</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>June 2022</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,23</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>160</v>
-      </c>
-      <c r="C26" t="n">
-        <v>127</v>
-      </c>
-      <c r="D26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" t="n">
-        <v>73</v>
-      </c>
-      <c r="F26" t="n">
-        <v>46</v>
-      </c>
-      <c r="G26" t="n">
-        <v>36</v>
-      </c>
-      <c r="H26" t="n">
-        <v>26</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>P1 50</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>90</v>
-      </c>
-      <c r="C27" t="n">
-        <v>71</v>
-      </c>
-      <c r="D27" t="n">
-        <v>62</v>
-      </c>
-      <c r="E27" t="n">
-        <v>53</v>
-      </c>
-      <c r="F27" t="n">
-        <v>44</v>
-      </c>
-      <c r="G27" t="n">
-        <v>35</v>
-      </c>
-      <c r="H27" t="n">
-        <v>26</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>June 2022</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
+++ b/thresholds/IGCSE/additional-mathematics/additional-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,58 +483,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
         <v>30</v>
@@ -553,7 +553,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -588,65 +588,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>160</v>
       </c>
       <c r="C5" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G6" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -658,30 +658,30 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -693,65 +693,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>160</v>
       </c>
       <c r="C9" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F9" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -763,7 +763,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -773,20 +773,20 @@
         <v>137</v>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -798,35 +798,35 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
@@ -840,19 +840,19 @@
         <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
@@ -875,93 +875,93 @@
         <v>160</v>
       </c>
       <c r="C13" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D13" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E13" t="n">
         <v>87</v>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G13" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G14" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>160</v>
       </c>
       <c r="C15" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -973,30 +973,30 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E16" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1008,58 +1008,58 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D17" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F17" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" t="n">
         <v>68</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="n">
         <v>26</v>
@@ -1078,26 +1078,26 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D19" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E19" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1113,42 +1113,42 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D20" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E20" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1183,30 +1183,30 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23</t>
+          <t>AY 12,22</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>160</v>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D22" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E22" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F22" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1218,65 +1218,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21</t>
+          <t>AZ 13,23</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D23" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E23" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>June 2022</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22</t>
+          <t>AX 11,21</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D24" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E24" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F24" t="n">
+        <v>46</v>
+      </c>
+      <c r="G24" t="n">
         <v>34</v>
       </c>
-      <c r="G24" t="n">
-        <v>25</v>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1288,33 +1288,103 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
+          <t>AY 12,22</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>160</v>
+      </c>
+      <c r="C25" t="n">
+        <v>118</v>
+      </c>
+      <c r="D25" t="n">
+        <v>90</v>
+      </c>
+      <c r="E25" t="n">
+        <v>62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>June 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>AZ 13,23</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>160</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B26" t="n">
+        <v>160</v>
+      </c>
+      <c r="C26" t="n">
         <v>127</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>100</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>73</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>46</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>36</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>June 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>90</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71</v>
+      </c>
+      <c r="D27" t="n">
+        <v>62</v>
+      </c>
+      <c r="E27" t="n">
+        <v>53</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44</v>
+      </c>
+      <c r="G27" t="n">
+        <v>35</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>June 2022</t>
         </is>
